--- a/Code/Results/Cases/Case_4_148/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_148/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.152209492818457</v>
+        <v>0.7710948365625825</v>
       </c>
       <c r="C2">
-        <v>0.1488681510747938</v>
+        <v>0.05543888078098291</v>
       </c>
       <c r="D2">
-        <v>0.1922990593209306</v>
+        <v>0.07738518413988515</v>
       </c>
       <c r="E2">
-        <v>0.03056117636403144</v>
+        <v>0.07458241688745293</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.107339117768419</v>
+        <v>1.615497970026766</v>
       </c>
       <c r="H2">
-        <v>0.7428065233054042</v>
+        <v>1.440838659402161</v>
       </c>
       <c r="I2">
-        <v>0.7828534708363648</v>
+        <v>1.416232152607925</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.152260034332016</v>
+        <v>0.5687447465496405</v>
       </c>
       <c r="L2">
-        <v>0.1672168048046601</v>
+        <v>0.2201298687743147</v>
       </c>
       <c r="M2">
-        <v>0.2445401654369803</v>
+        <v>0.2087863260559963</v>
       </c>
       <c r="N2">
-        <v>1.352472207992754</v>
+        <v>2.639224997616026</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.004934052882192</v>
+        <v>0.7348842129705417</v>
       </c>
       <c r="C3">
-        <v>0.1304469658137322</v>
+        <v>0.04972933416826208</v>
       </c>
       <c r="D3">
-        <v>0.1666411485114168</v>
+        <v>0.07036235194044593</v>
       </c>
       <c r="E3">
-        <v>0.03018069368059884</v>
+        <v>0.07478131441755131</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.052177396154534</v>
+        <v>1.609757131643121</v>
       </c>
       <c r="H3">
-        <v>0.7247084729810069</v>
+        <v>1.443228934598679</v>
       </c>
       <c r="I3">
-        <v>0.7641973266464461</v>
+        <v>1.41833671836158</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.99932856652444</v>
+        <v>0.5288870036945923</v>
       </c>
       <c r="L3">
-        <v>0.1522973292913932</v>
+        <v>0.217449827957509</v>
       </c>
       <c r="M3">
-        <v>0.2153767448284079</v>
+        <v>0.2020892534365508</v>
       </c>
       <c r="N3">
-        <v>1.394194410385047</v>
+        <v>2.65760901537395</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9154047609081317</v>
+        <v>0.7130540906033787</v>
       </c>
       <c r="C4">
-        <v>0.11920381898409</v>
+        <v>0.04619936719932127</v>
       </c>
       <c r="D4">
-        <v>0.1510643384015964</v>
+        <v>0.06608662543308697</v>
       </c>
       <c r="E4">
-        <v>0.02997444417726491</v>
+        <v>0.07492304629010427</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.020193201930951</v>
+        <v>1.607037261016785</v>
       </c>
       <c r="H4">
-        <v>0.714673346700593</v>
+        <v>1.445254469117359</v>
       </c>
       <c r="I4">
-        <v>0.7539422981290542</v>
+        <v>1.42021005889805</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.9062667571658949</v>
+        <v>0.5046943151792789</v>
       </c>
       <c r="L4">
-        <v>0.1433389044295552</v>
+        <v>0.215911052343138</v>
       </c>
       <c r="M4">
-        <v>0.1976992537125142</v>
+        <v>0.1980878122596792</v>
       </c>
       <c r="N4">
-        <v>1.42135230713626</v>
+        <v>2.669618202713536</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8791213070455797</v>
+        <v>0.7042598741784332</v>
       </c>
       <c r="C5">
-        <v>0.1146350784143664</v>
+        <v>0.04475471512880347</v>
       </c>
       <c r="D5">
-        <v>0.1447557616072288</v>
+        <v>0.0643533333743278</v>
       </c>
       <c r="E5">
-        <v>0.02989709518626871</v>
+        <v>0.07498574539312397</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.007605000547969</v>
+        <v>1.606131225596783</v>
       </c>
       <c r="H5">
-        <v>0.7108418775538041</v>
+        <v>1.44622025541301</v>
       </c>
       <c r="I5">
-        <v>0.7500502827361473</v>
+        <v>1.421119616932458</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.868526568208523</v>
+        <v>0.4949061942735113</v>
       </c>
       <c r="L5">
-        <v>0.1397356107886409</v>
+        <v>0.2153108813087456</v>
       </c>
       <c r="M5">
-        <v>0.1905476374564046</v>
+        <v>0.1964850665398252</v>
       </c>
       <c r="N5">
-        <v>1.432795285983914</v>
+        <v>2.674693396369904</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8731078586950503</v>
+        <v>0.7028057550494111</v>
       </c>
       <c r="C6">
-        <v>0.1138771100904279</v>
+        <v>0.04451445796252074</v>
       </c>
       <c r="D6">
-        <v>0.1437104346690887</v>
+        <v>0.0640660703131033</v>
       </c>
       <c r="E6">
-        <v>0.02988465091763448</v>
+        <v>0.07499645537145216</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.005540852720301</v>
+        <v>1.60599299681698</v>
       </c>
       <c r="H6">
-        <v>0.7102208794561875</v>
+        <v>1.446389103470921</v>
       </c>
       <c r="I6">
-        <v>0.7494209354140082</v>
+        <v>1.421279476685655</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8622701295256263</v>
+        <v>0.4932851527599382</v>
       </c>
       <c r="L6">
-        <v>0.1391400469220372</v>
+        <v>0.215212848845141</v>
       </c>
       <c r="M6">
-        <v>0.1893631101250826</v>
+        <v>0.1962206173061105</v>
       </c>
       <c r="N6">
-        <v>1.434717767789344</v>
+        <v>2.675547080788135</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9149146504662156</v>
+        <v>0.712935076387339</v>
       </c>
       <c r="C7">
-        <v>0.1191421561536572</v>
+        <v>0.04617990913833125</v>
       </c>
       <c r="D7">
-        <v>0.150979107422728</v>
+        <v>0.06606321284132832</v>
       </c>
       <c r="E7">
-        <v>0.02997337413031875</v>
+        <v>0.07492387184565352</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.020021665165288</v>
+        <v>1.607024222795189</v>
       </c>
       <c r="H7">
-        <v>0.714620646368175</v>
+        <v>1.445266925620459</v>
       </c>
       <c r="I7">
-        <v>0.7538886658824069</v>
+        <v>1.42022173370102</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9057570731454518</v>
+        <v>0.5045620231082069</v>
       </c>
       <c r="L7">
-        <v>0.143290121974772</v>
+        <v>0.2159028492833812</v>
       </c>
       <c r="M7">
-        <v>0.1976026005439309</v>
+        <v>0.1980660841219368</v>
       </c>
       <c r="N7">
-        <v>1.42150512364725</v>
+        <v>2.669685914310243</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.10122661762307</v>
+        <v>0.7585258717564329</v>
       </c>
       <c r="C8">
-        <v>0.1424999868568193</v>
+        <v>0.05347523375689889</v>
       </c>
       <c r="D8">
-        <v>0.1834120258098437</v>
+        <v>0.07495615176503634</v>
       </c>
       <c r="E8">
-        <v>0.03042419238734162</v>
+        <v>0.07464693403317924</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.087910383969017</v>
+        <v>1.613351380963266</v>
       </c>
       <c r="H8">
-        <v>0.7363347222193539</v>
+        <v>1.441547078514702</v>
       </c>
       <c r="I8">
-        <v>0.776162642282074</v>
+        <v>1.4168372069661</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.09933798120133</v>
+        <v>0.5549437361465266</v>
       </c>
       <c r="L8">
-        <v>0.1620284276499291</v>
+        <v>0.219183652059705</v>
       </c>
       <c r="M8">
-        <v>0.2344336948052828</v>
+        <v>0.2064542594586811</v>
       </c>
       <c r="N8">
-        <v>1.366531261542541</v>
+        <v>2.645414077866022</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.474956370981744</v>
+        <v>0.8511215201824598</v>
       </c>
       <c r="C9">
-        <v>0.1890386641910737</v>
+        <v>0.06759180568457168</v>
       </c>
       <c r="D9">
-        <v>0.2486850912400058</v>
+        <v>0.09268574400189777</v>
       </c>
       <c r="E9">
-        <v>0.03153423784975118</v>
+        <v>0.07425895221900802</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.237377985074843</v>
+        <v>1.632153551189091</v>
       </c>
       <c r="H9">
-        <v>0.7880892391576424</v>
+        <v>1.438676884950908</v>
       </c>
       <c r="I9">
-        <v>0.8300755100441748</v>
+        <v>1.414811217844736</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.486955790161204</v>
+        <v>0.6559636486549323</v>
       </c>
       <c r="L9">
-        <v>0.2005487875408818</v>
+        <v>0.2264633132809024</v>
       </c>
       <c r="M9">
-        <v>0.3087429365793781</v>
+        <v>0.2237791389774273</v>
       </c>
       <c r="N9">
-        <v>1.271497067057581</v>
+        <v>2.603541517433236</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.756521836374787</v>
+        <v>0.9210948356803783</v>
       </c>
       <c r="C10">
-        <v>0.223978982464061</v>
+        <v>0.07785291635715907</v>
       </c>
       <c r="D10">
-        <v>0.2980606150001819</v>
+        <v>0.1058934478882207</v>
       </c>
       <c r="E10">
-        <v>0.03250078847181648</v>
+        <v>0.0740678275651252</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.359223340785888</v>
+        <v>1.649879630635468</v>
       </c>
       <c r="H10">
-        <v>0.8326471776272228</v>
+        <v>1.43926409276753</v>
       </c>
       <c r="I10">
-        <v>0.8769933394877896</v>
+        <v>1.416135690323394</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.778664748805681</v>
+        <v>0.7315441646653085</v>
       </c>
       <c r="L10">
-        <v>0.2301876526745588</v>
+        <v>0.232326657349347</v>
       </c>
       <c r="M10">
-        <v>0.3650110951678087</v>
+        <v>0.2370408256643657</v>
       </c>
       <c r="N10">
-        <v>1.210277258122247</v>
+        <v>2.576268443958973</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.88658750427939</v>
+        <v>0.9533494237016669</v>
       </c>
       <c r="C11">
-        <v>0.2401105632146994</v>
+        <v>0.08249817304462681</v>
       </c>
       <c r="D11">
-        <v>0.3209278678601493</v>
+        <v>0.1119425170096662</v>
       </c>
       <c r="E11">
-        <v>0.03297646809545896</v>
+        <v>0.07400114624621423</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.417770191664431</v>
+        <v>1.658796420599032</v>
       </c>
       <c r="H11">
-        <v>0.8545657166247622</v>
+        <v>1.440116504347827</v>
       </c>
       <c r="I11">
-        <v>0.9001841562755288</v>
+        <v>1.417349611978281</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.913372466338416</v>
+        <v>0.7662252760060824</v>
       </c>
       <c r="L11">
-        <v>0.2440236052197946</v>
+        <v>0.2351057628463735</v>
       </c>
       <c r="M11">
-        <v>0.3910700028658312</v>
+        <v>0.243189617845303</v>
       </c>
       <c r="N11">
-        <v>1.184494009188299</v>
+        <v>2.56461944374194</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.936165912388049</v>
+        <v>0.9656240932583842</v>
       </c>
       <c r="C12">
-        <v>0.2462600053659827</v>
+        <v>0.0842540383453354</v>
       </c>
       <c r="D12">
-        <v>0.3296542248723711</v>
+        <v>0.1142390672556104</v>
       </c>
       <c r="E12">
-        <v>0.03316205670991934</v>
+        <v>0.07397879845428257</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.440434744122939</v>
+        <v>1.662295845295461</v>
       </c>
       <c r="H12">
-        <v>0.8631237292638332</v>
+        <v>1.440523419376149</v>
       </c>
       <c r="I12">
-        <v>0.9092552966640923</v>
+        <v>1.417897232625315</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.964716462308218</v>
+        <v>0.7794011059746708</v>
       </c>
       <c r="L12">
-        <v>0.2493192707234613</v>
+        <v>0.2361741934350761</v>
       </c>
       <c r="M12">
-        <v>0.4010131056317334</v>
+        <v>0.245534644075299</v>
       </c>
       <c r="N12">
-        <v>1.175046125666952</v>
+        <v>2.560317277170761</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.925473160161289</v>
+        <v>0.962977835395435</v>
       </c>
       <c r="C13">
-        <v>0.244933687038241</v>
+        <v>0.08387602247552195</v>
       </c>
       <c r="D13">
-        <v>0.3277717215832041</v>
+        <v>0.1137442012419143</v>
       </c>
       <c r="E13">
-        <v>0.03312183933325841</v>
+        <v>0.07398348251033404</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.435530780911307</v>
+        <v>1.661536716209639</v>
       </c>
       <c r="H13">
-        <v>0.8612687850272494</v>
+        <v>1.440432042041977</v>
       </c>
       <c r="I13">
-        <v>0.907288400859791</v>
+        <v>1.417775381545731</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.953643050694524</v>
+        <v>0.7765615524028533</v>
       </c>
       <c r="L13">
-        <v>0.2481761580973227</v>
+        <v>0.2359433748634387</v>
       </c>
       <c r="M13">
-        <v>0.3988681914692194</v>
+        <v>0.2450288629453397</v>
       </c>
       <c r="N13">
-        <v>1.177066543001416</v>
+        <v>2.561238973638744</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.890659583853164</v>
+        <v>0.9543580563494061</v>
       </c>
       <c r="C14">
-        <v>0.240615624114298</v>
+        <v>0.08264269281791314</v>
       </c>
       <c r="D14">
-        <v>0.3216443952019716</v>
+        <v>0.1121313371873498</v>
       </c>
       <c r="E14">
-        <v>0.03299162547089551</v>
+        <v>0.07399924956106751</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.419624639216096</v>
+        <v>1.659081857793296</v>
       </c>
       <c r="H14">
-        <v>0.8552644942110419</v>
+        <v>1.440148295710173</v>
       </c>
       <c r="I14">
-        <v>0.9009245044218801</v>
+        <v>1.417392902624513</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.917589623767412</v>
+        <v>0.7673084017584131</v>
       </c>
       <c r="L14">
-        <v>0.2444581214253105</v>
+        <v>0.2351933419571566</v>
       </c>
       <c r="M14">
-        <v>0.3918864691825732</v>
+        <v>0.2433822120127829</v>
       </c>
       <c r="N14">
-        <v>1.183710287178499</v>
+        <v>2.564263315620664</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.869378900052482</v>
+        <v>0.9490860695257766</v>
       </c>
       <c r="C15">
-        <v>0.2379762031226562</v>
+        <v>0.0818868286095551</v>
       </c>
       <c r="D15">
-        <v>0.3179002279680958</v>
+        <v>0.1111441804827251</v>
       </c>
       <c r="E15">
-        <v>0.03291258544703979</v>
+        <v>0.07400928507126991</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.409947441272067</v>
+        <v>1.657594186806108</v>
       </c>
       <c r="H15">
-        <v>0.8516209330243782</v>
+        <v>1.43998544737164</v>
       </c>
       <c r="I15">
-        <v>0.8970648419529113</v>
+        <v>1.417170075412443</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.895550622347002</v>
+        <v>0.7616461544936044</v>
       </c>
       <c r="L15">
-        <v>0.2421882188394164</v>
+        <v>0.2347360133509824</v>
       </c>
       <c r="M15">
-        <v>0.3876200212334382</v>
+        <v>0.2423757521894885</v>
       </c>
       <c r="N15">
-        <v>1.187821462228143</v>
+        <v>2.566130018078297</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.748064978666179</v>
+        <v>0.9189954141875205</v>
       </c>
       <c r="C16">
-        <v>0.2229300724452372</v>
+        <v>0.07754888823667727</v>
       </c>
       <c r="D16">
-        <v>0.2965750791553177</v>
+        <v>0.1054989508860302</v>
       </c>
       <c r="E16">
-        <v>0.03247044966563273</v>
+        <v>0.07407259215741568</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.355463737879347</v>
+        <v>1.649314077270049</v>
       </c>
       <c r="H16">
-        <v>0.8312496692994387</v>
+        <v>1.439220159828636</v>
       </c>
       <c r="I16">
-        <v>0.8755169156468625</v>
+        <v>1.416068662073521</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.769905392669813</v>
+        <v>0.7292836774911962</v>
       </c>
       <c r="L16">
-        <v>0.2292910070040364</v>
+        <v>0.232147283461714</v>
       </c>
       <c r="M16">
-        <v>0.3633181120677733</v>
+        <v>0.2366413158599556</v>
       </c>
       <c r="N16">
-        <v>1.21200537869187</v>
+        <v>2.577044988571494</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.674177808529805</v>
+        <v>0.9006439776253501</v>
       </c>
       <c r="C17">
-        <v>0.2137650318504143</v>
+        <v>0.07488195866240233</v>
       </c>
       <c r="D17">
-        <v>0.2836027164311048</v>
+        <v>0.1020462609564277</v>
       </c>
       <c r="E17">
-        <v>0.03220862679857817</v>
+        <v>0.07411661101175326</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.322869811370992</v>
+        <v>1.644453108582724</v>
       </c>
       <c r="H17">
-        <v>0.819189143655592</v>
+        <v>1.438900559072977</v>
       </c>
       <c r="I17">
-        <v>0.8627873513407351</v>
+        <v>1.415549587893388</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.69337076126709</v>
+        <v>0.7095068440102636</v>
       </c>
       <c r="L17">
-        <v>0.2214732041763625</v>
+        <v>0.2305877988929694</v>
       </c>
       <c r="M17">
-        <v>0.3485340257486982</v>
+        <v>0.2331530840035683</v>
       </c>
       <c r="N17">
-        <v>1.227383291226182</v>
+        <v>2.583935098581406</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.631863612731024</v>
+        <v>0.8901285861005306</v>
       </c>
       <c r="C18">
-        <v>0.2085154210516862</v>
+        <v>0.07334588333863223</v>
       </c>
       <c r="D18">
-        <v>0.2761790210888506</v>
+        <v>0.1000642053097351</v>
       </c>
       <c r="E18">
-        <v>0.03206140261024082</v>
+        <v>0.07414383730797702</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.304413245559999</v>
+        <v>1.641737497139019</v>
       </c>
       <c r="H18">
-        <v>0.8124061021967464</v>
+        <v>1.438771825395747</v>
       </c>
       <c r="I18">
-        <v>0.8556380264852166</v>
+        <v>1.415308578211011</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.64953617872564</v>
+        <v>0.6981599006562078</v>
       </c>
       <c r="L18">
-        <v>0.2170094886351706</v>
+        <v>0.2297013539248098</v>
       </c>
       <c r="M18">
-        <v>0.340073556701185</v>
+        <v>0.231157666247924</v>
       </c>
       <c r="N18">
-        <v>1.236421511113583</v>
+        <v>2.587969415313651</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.617567130108426</v>
+        <v>0.8865751127104033</v>
       </c>
       <c r="C19">
-        <v>0.2067415571775655</v>
+        <v>0.07282542751464405</v>
       </c>
       <c r="D19">
-        <v>0.2736717028836608</v>
+        <v>0.09939377399345517</v>
       </c>
       <c r="E19">
-        <v>0.03201212543889298</v>
+        <v>0.07415338366038426</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.298212752265471</v>
+        <v>1.640831822851709</v>
       </c>
       <c r="H19">
-        <v>0.8101352998742186</v>
+        <v>1.438737701733032</v>
       </c>
       <c r="I19">
-        <v>0.8532463086324711</v>
+        <v>1.41523685999757</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.634725216759819</v>
+        <v>0.6943228637849757</v>
       </c>
       <c r="L19">
-        <v>0.2155036372107162</v>
+        <v>0.2294030284973871</v>
       </c>
       <c r="M19">
-        <v>0.3372161102790372</v>
+        <v>0.2304839297912125</v>
       </c>
       <c r="N19">
-        <v>1.239514347856186</v>
+        <v>2.589347609621292</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.682023923145522</v>
+        <v>0.9025933953917615</v>
       </c>
       <c r="C20">
-        <v>0.2147383553692066</v>
+        <v>0.07516607771880501</v>
       </c>
       <c r="D20">
-        <v>0.2849796881980495</v>
+        <v>0.1024134080255692</v>
       </c>
       <c r="E20">
-        <v>0.03223614758481119</v>
+        <v>0.07411172775580788</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.326309096390787</v>
+        <v>1.644962256254985</v>
       </c>
       <c r="H20">
-        <v>0.8204569387559673</v>
+        <v>1.438928879559683</v>
       </c>
       <c r="I20">
-        <v>0.8641244296217536</v>
+        <v>1.415598888113749</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.701498432088584</v>
+        <v>0.7116092076475411</v>
       </c>
       <c r="L20">
-        <v>0.2223019813633442</v>
+        <v>0.2307527192265582</v>
       </c>
       <c r="M20">
-        <v>0.350103311549347</v>
+        <v>0.2335232824441391</v>
       </c>
       <c r="N20">
-        <v>1.225726155891287</v>
+        <v>2.583194253759082</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.900876003732918</v>
+        <v>0.9568882534735224</v>
       </c>
       <c r="C21">
-        <v>0.2418827812747679</v>
+        <v>0.08300503785443425</v>
       </c>
       <c r="D21">
-        <v>0.3234422480619372</v>
+        <v>0.1126049141253134</v>
       </c>
       <c r="E21">
-        <v>0.03302972191047004</v>
+        <v>0.0739945396951498</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.42428286439096</v>
+        <v>1.659799574412745</v>
       </c>
       <c r="H21">
-        <v>0.8570209245509091</v>
+        <v>1.440229356048263</v>
       </c>
       <c r="I21">
-        <v>0.9027856858998362</v>
+        <v>1.417502859304896</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.92816997576503</v>
+        <v>0.7700251149497888</v>
       </c>
       <c r="L21">
-        <v>0.2455486249646555</v>
+        <v>0.2354132096920551</v>
       </c>
       <c r="M21">
-        <v>0.3939350575025458</v>
+        <v>0.2438654229873265</v>
       </c>
       <c r="N21">
-        <v>1.181750134801931</v>
+        <v>2.563372032425256</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.045826383980796</v>
+        <v>0.992725905683983</v>
       </c>
       <c r="C22">
-        <v>0.2598643895167498</v>
+        <v>0.08810966742423432</v>
       </c>
       <c r="D22">
-        <v>0.3489749670049775</v>
+        <v>0.1193000501718728</v>
       </c>
       <c r="E22">
-        <v>0.03358033619399947</v>
+        <v>0.07393486636346935</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.491218688477289</v>
+        <v>1.670212638771432</v>
       </c>
       <c r="H22">
-        <v>0.8824320766447897</v>
+        <v>1.441569622461401</v>
       </c>
       <c r="I22">
-        <v>0.9297516613613439</v>
+        <v>1.419259774055845</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.078278000405447</v>
+        <v>0.8084529459416103</v>
       </c>
       <c r="L22">
-        <v>0.2610726530450478</v>
+        <v>0.238552606379983</v>
       </c>
       <c r="M22">
-        <v>0.4230243057462459</v>
+        <v>0.2507214070135575</v>
       </c>
       <c r="N22">
-        <v>1.154859096890902</v>
+        <v>2.551052784579824</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.968273798533488</v>
+        <v>0.9735664994717581</v>
       </c>
       <c r="C23">
-        <v>0.250242828771789</v>
+        <v>0.0853869133088665</v>
       </c>
       <c r="D23">
-        <v>0.3353084674008073</v>
+        <v>0.115723573015984</v>
       </c>
       <c r="E23">
-        <v>0.03328343834105674</v>
+        <v>0.07396517086595544</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.455211890650162</v>
+        <v>1.664589423167143</v>
       </c>
       <c r="H23">
-        <v>0.8687237242903905</v>
+        <v>1.440809444076734</v>
       </c>
       <c r="I23">
-        <v>0.9151956520359903</v>
+        <v>1.418275171169974</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.997967021236263</v>
+        <v>0.7879205022701967</v>
       </c>
       <c r="L23">
-        <v>0.252754955589765</v>
+        <v>0.2368685091357889</v>
       </c>
       <c r="M23">
-        <v>0.4074552542993501</v>
+        <v>0.2470534041898986</v>
       </c>
       <c r="N23">
-        <v>1.169035507350756</v>
+        <v>2.557569594435392</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.678476185305215</v>
+        <v>0.9017119542817227</v>
       </c>
       <c r="C24">
-        <v>0.2142982555866695</v>
+        <v>0.0750376362889682</v>
       </c>
       <c r="D24">
-        <v>0.2843570531038608</v>
+        <v>0.1022474116770411</v>
       </c>
       <c r="E24">
-        <v>0.03222369517587609</v>
+        <v>0.07411392949700968</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.324753320306201</v>
+        <v>1.644731824442232</v>
       </c>
       <c r="H24">
-        <v>0.819883300698848</v>
+        <v>1.438915904505961</v>
       </c>
       <c r="I24">
-        <v>0.863519411670687</v>
+        <v>1.415576420640427</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.697823397752899</v>
+        <v>0.7106586573268601</v>
       </c>
       <c r="L24">
-        <v>0.2219271955383419</v>
+        <v>0.2306781272079661</v>
       </c>
       <c r="M24">
-        <v>0.3493937163019112</v>
+        <v>0.2333558845344612</v>
       </c>
       <c r="N24">
-        <v>1.226474733762835</v>
+        <v>2.583528961990872</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.372770546578579</v>
+        <v>0.8257304863251989</v>
       </c>
       <c r="C25">
-        <v>0.1763405752979139</v>
+        <v>0.06379265141977442</v>
       </c>
       <c r="D25">
-        <v>0.2308084686669076</v>
+        <v>0.08785783244113077</v>
       </c>
       <c r="E25">
-        <v>0.03120843730586031</v>
+        <v>0.07434737249262291</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.194989778398451</v>
+        <v>1.6263810592027</v>
       </c>
       <c r="H25">
-        <v>0.7730134416581222</v>
+        <v>1.438979825926666</v>
       </c>
       <c r="I25">
-        <v>0.8142896452008799</v>
+        <v>1.414865461609772</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.381036140174672</v>
+        <v>0.6283965485025362</v>
       </c>
       <c r="L25">
-        <v>0.1899127191489072</v>
+        <v>0.2244034813255666</v>
       </c>
       <c r="M25">
-        <v>0.2883774810957291</v>
+        <v>0.2189986296512529</v>
       </c>
       <c r="N25">
-        <v>1.295758929914129</v>
+        <v>2.614256232130202</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_148/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_148/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7710948365625825</v>
+        <v>1.152209492818344</v>
       </c>
       <c r="C2">
-        <v>0.05543888078098291</v>
+        <v>0.1488681510747938</v>
       </c>
       <c r="D2">
-        <v>0.07738518413988515</v>
+        <v>0.1922990593209164</v>
       </c>
       <c r="E2">
-        <v>0.07458241688745293</v>
+        <v>0.03056117636403322</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.615497970026766</v>
+        <v>1.107339117768419</v>
       </c>
       <c r="H2">
-        <v>1.440838659402161</v>
+        <v>0.7428065233053047</v>
       </c>
       <c r="I2">
-        <v>1.416232152607925</v>
+        <v>0.7828534708363861</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5687447465496405</v>
+        <v>1.152260034332045</v>
       </c>
       <c r="L2">
-        <v>0.2201298687743147</v>
+        <v>0.1672168048047666</v>
       </c>
       <c r="M2">
-        <v>0.2087863260559963</v>
+        <v>0.2445401654370052</v>
       </c>
       <c r="N2">
-        <v>2.639224997616026</v>
+        <v>1.352472207992818</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7348842129705417</v>
+        <v>1.004934052882021</v>
       </c>
       <c r="C3">
-        <v>0.04972933416826208</v>
+        <v>0.1304469658138601</v>
       </c>
       <c r="D3">
-        <v>0.07036235194044593</v>
+        <v>0.1666411485113457</v>
       </c>
       <c r="E3">
-        <v>0.07478131441755131</v>
+        <v>0.03018069368062903</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.609757131643121</v>
+        <v>1.052177396154519</v>
       </c>
       <c r="H3">
-        <v>1.443228934598679</v>
+        <v>0.7247084729809927</v>
       </c>
       <c r="I3">
-        <v>1.41833671836158</v>
+        <v>0.7641973266464532</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5288870036945923</v>
+        <v>0.9993285665243832</v>
       </c>
       <c r="L3">
-        <v>0.217449827957509</v>
+        <v>0.1522973292913932</v>
       </c>
       <c r="M3">
-        <v>0.2020892534365508</v>
+        <v>0.2153767448284292</v>
       </c>
       <c r="N3">
-        <v>2.65760901537395</v>
+        <v>1.394194410384969</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7130540906033787</v>
+        <v>0.915404760908217</v>
       </c>
       <c r="C4">
-        <v>0.04619936719932127</v>
+        <v>0.1192038189838058</v>
       </c>
       <c r="D4">
-        <v>0.06608662543308697</v>
+        <v>0.1510643384016674</v>
       </c>
       <c r="E4">
-        <v>0.07492304629010427</v>
+        <v>0.02997444417724981</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.607037261016785</v>
+        <v>1.020193201931022</v>
       </c>
       <c r="H4">
-        <v>1.445254469117359</v>
+        <v>0.7146733467006072</v>
       </c>
       <c r="I4">
-        <v>1.42021005889805</v>
+        <v>0.7539422981290684</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5046943151792789</v>
+        <v>0.9062667571658949</v>
       </c>
       <c r="L4">
-        <v>0.215911052343138</v>
+        <v>0.1433389044294628</v>
       </c>
       <c r="M4">
-        <v>0.1980878122596792</v>
+        <v>0.1976992537125071</v>
       </c>
       <c r="N4">
-        <v>2.669618202713536</v>
+        <v>1.421352307136281</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7042598741784332</v>
+        <v>0.879121307045807</v>
       </c>
       <c r="C5">
-        <v>0.04475471512880347</v>
+        <v>0.1146350784145795</v>
       </c>
       <c r="D5">
-        <v>0.0643533333743278</v>
+        <v>0.1447557616071578</v>
       </c>
       <c r="E5">
-        <v>0.07498574539312397</v>
+        <v>0.02989709518628736</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.606131225596783</v>
+        <v>1.007605000547954</v>
       </c>
       <c r="H5">
-        <v>1.44622025541301</v>
+        <v>0.7108418775538183</v>
       </c>
       <c r="I5">
-        <v>1.421119616932458</v>
+        <v>0.7500502827361615</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4949061942735113</v>
+        <v>0.8685265682084378</v>
       </c>
       <c r="L5">
-        <v>0.2153108813087456</v>
+        <v>0.1397356107886836</v>
       </c>
       <c r="M5">
-        <v>0.1964850665398252</v>
+        <v>0.1905476374563904</v>
       </c>
       <c r="N5">
-        <v>2.674693396369904</v>
+        <v>1.432795285983921</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7028057550494111</v>
+        <v>0.8731078586949081</v>
       </c>
       <c r="C6">
-        <v>0.04451445796252074</v>
+        <v>0.1138771100902858</v>
       </c>
       <c r="D6">
-        <v>0.0640660703131033</v>
+        <v>0.1437104346690177</v>
       </c>
       <c r="E6">
-        <v>0.07499645537145216</v>
+        <v>0.02988465091764336</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.60599299681698</v>
+        <v>1.005540852720301</v>
       </c>
       <c r="H6">
-        <v>1.446389103470921</v>
+        <v>0.710220879456287</v>
       </c>
       <c r="I6">
-        <v>1.421279476685655</v>
+        <v>0.7494209354140011</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4932851527599382</v>
+        <v>0.86227012952574</v>
       </c>
       <c r="L6">
-        <v>0.215212848845141</v>
+        <v>0.1391400469221438</v>
       </c>
       <c r="M6">
-        <v>0.1962206173061105</v>
+        <v>0.1893631101250826</v>
       </c>
       <c r="N6">
-        <v>2.675547080788135</v>
+        <v>1.434717767789301</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.712935076387339</v>
+        <v>0.9149146504661019</v>
       </c>
       <c r="C7">
-        <v>0.04617990913833125</v>
+        <v>0.1191421561532877</v>
       </c>
       <c r="D7">
-        <v>0.06606321284132832</v>
+        <v>0.1509791074228417</v>
       </c>
       <c r="E7">
-        <v>0.07492387184565352</v>
+        <v>0.02997337413029832</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.607024222795189</v>
+        <v>1.020021665165203</v>
       </c>
       <c r="H7">
-        <v>1.445266925620459</v>
+        <v>0.7146206463680471</v>
       </c>
       <c r="I7">
-        <v>1.42022173370102</v>
+        <v>0.7538886658823927</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5045620231082069</v>
+        <v>0.9057570731454803</v>
       </c>
       <c r="L7">
-        <v>0.2159028492833812</v>
+        <v>0.1432901219748075</v>
       </c>
       <c r="M7">
-        <v>0.1980660841219368</v>
+        <v>0.1976026005439451</v>
       </c>
       <c r="N7">
-        <v>2.669685914310243</v>
+        <v>1.421505123647222</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7585258717564329</v>
+        <v>1.10122661762324</v>
       </c>
       <c r="C8">
-        <v>0.05347523375689889</v>
+        <v>0.1424999868567909</v>
       </c>
       <c r="D8">
-        <v>0.07495615176503634</v>
+        <v>0.18341202580973</v>
       </c>
       <c r="E8">
-        <v>0.07464693403317924</v>
+        <v>0.03042419238735583</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.613351380963266</v>
+        <v>1.08791038396906</v>
       </c>
       <c r="H8">
-        <v>1.441547078514702</v>
+        <v>0.7363347222193539</v>
       </c>
       <c r="I8">
-        <v>1.4168372069661</v>
+        <v>0.7761626422820598</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5549437361465266</v>
+        <v>1.099337981201444</v>
       </c>
       <c r="L8">
-        <v>0.219183652059705</v>
+        <v>0.1620284276499078</v>
       </c>
       <c r="M8">
-        <v>0.2064542594586811</v>
+        <v>0.2344336948052828</v>
       </c>
       <c r="N8">
-        <v>2.645414077866022</v>
+        <v>1.366531261542548</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8511215201824598</v>
+        <v>1.474956370981573</v>
       </c>
       <c r="C9">
-        <v>0.06759180568457168</v>
+        <v>0.1890386641911022</v>
       </c>
       <c r="D9">
-        <v>0.09268574400189777</v>
+        <v>0.2486850912400627</v>
       </c>
       <c r="E9">
-        <v>0.07425895221900802</v>
+        <v>0.03153423784975828</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.632153551189091</v>
+        <v>1.237377985074829</v>
       </c>
       <c r="H9">
-        <v>1.438676884950908</v>
+        <v>0.7880892391576424</v>
       </c>
       <c r="I9">
-        <v>1.414811217844736</v>
+        <v>0.8300755100441819</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.6559636486549323</v>
+        <v>1.486955790161176</v>
       </c>
       <c r="L9">
-        <v>0.2264633132809024</v>
+        <v>0.2005487875409671</v>
       </c>
       <c r="M9">
-        <v>0.2237791389774273</v>
+        <v>0.3087429365793781</v>
       </c>
       <c r="N9">
-        <v>2.603541517433236</v>
+        <v>1.271497067057567</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9210948356803783</v>
+        <v>1.756521836374816</v>
       </c>
       <c r="C10">
-        <v>0.07785291635715907</v>
+        <v>0.2239789824642173</v>
       </c>
       <c r="D10">
-        <v>0.1058934478882207</v>
+        <v>0.2980606150001819</v>
       </c>
       <c r="E10">
-        <v>0.0740678275651252</v>
+        <v>0.03250078847183602</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.649879630635468</v>
+        <v>1.359223340785888</v>
       </c>
       <c r="H10">
-        <v>1.43926409276753</v>
+        <v>0.8326471776272228</v>
       </c>
       <c r="I10">
-        <v>1.416135690323394</v>
+        <v>0.8769933394877754</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.7315441646653085</v>
+        <v>1.778664748805681</v>
       </c>
       <c r="L10">
-        <v>0.232326657349347</v>
+        <v>0.2301876526745303</v>
       </c>
       <c r="M10">
-        <v>0.2370408256643657</v>
+        <v>0.3650110951678087</v>
       </c>
       <c r="N10">
-        <v>2.576268443958973</v>
+        <v>1.210277258122211</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9533494237016669</v>
+        <v>1.886587504279504</v>
       </c>
       <c r="C11">
-        <v>0.08249817304462681</v>
+        <v>0.240110563214543</v>
       </c>
       <c r="D11">
-        <v>0.1119425170096662</v>
+        <v>0.3209278678602487</v>
       </c>
       <c r="E11">
-        <v>0.07400114624621423</v>
+        <v>0.03297646809545718</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.658796420599032</v>
+        <v>1.417770191664431</v>
       </c>
       <c r="H11">
-        <v>1.440116504347827</v>
+        <v>0.8545657166247622</v>
       </c>
       <c r="I11">
-        <v>1.417349611978281</v>
+        <v>0.9001841562755359</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.7662252760060824</v>
+        <v>1.913372466338302</v>
       </c>
       <c r="L11">
-        <v>0.2351057628463735</v>
+        <v>0.2440236052197235</v>
       </c>
       <c r="M11">
-        <v>0.243189617845303</v>
+        <v>0.3910700028658241</v>
       </c>
       <c r="N11">
-        <v>2.56461944374194</v>
+        <v>1.184494009188228</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9656240932583842</v>
+        <v>1.936165912388162</v>
       </c>
       <c r="C12">
-        <v>0.0842540383453354</v>
+        <v>0.2462600053660964</v>
       </c>
       <c r="D12">
-        <v>0.1142390672556104</v>
+        <v>0.3296542248723284</v>
       </c>
       <c r="E12">
-        <v>0.07397879845428257</v>
+        <v>0.03316205670988381</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.662295845295461</v>
+        <v>1.440434744122996</v>
       </c>
       <c r="H12">
-        <v>1.440523419376149</v>
+        <v>0.8631237292637195</v>
       </c>
       <c r="I12">
-        <v>1.417897232625315</v>
+        <v>0.9092552966640781</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.7794011059746708</v>
+        <v>1.964716462308388</v>
       </c>
       <c r="L12">
-        <v>0.2361741934350761</v>
+        <v>0.2493192707234471</v>
       </c>
       <c r="M12">
-        <v>0.245534644075299</v>
+        <v>0.4010131056317263</v>
       </c>
       <c r="N12">
-        <v>2.560317277170761</v>
+        <v>1.175046125666995</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.962977835395435</v>
+        <v>1.925473160161317</v>
       </c>
       <c r="C13">
-        <v>0.08387602247552195</v>
+        <v>0.2449336870380847</v>
       </c>
       <c r="D13">
-        <v>0.1137442012419143</v>
+        <v>0.3277717215832752</v>
       </c>
       <c r="E13">
-        <v>0.07398348251033404</v>
+        <v>0.03312183933324597</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.661536716209639</v>
+        <v>1.435530780911392</v>
       </c>
       <c r="H13">
-        <v>1.440432042041977</v>
+        <v>0.8612687850272778</v>
       </c>
       <c r="I13">
-        <v>1.417775381545731</v>
+        <v>0.907288400859791</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.7765615524028533</v>
+        <v>1.95364305069441</v>
       </c>
       <c r="L13">
-        <v>0.2359433748634387</v>
+        <v>0.2481761580973938</v>
       </c>
       <c r="M13">
-        <v>0.2450288629453397</v>
+        <v>0.398868191469262</v>
       </c>
       <c r="N13">
-        <v>2.561238973638744</v>
+        <v>1.17706654300143</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9543580563494061</v>
+        <v>1.890659583853335</v>
       </c>
       <c r="C14">
-        <v>0.08264269281791314</v>
+        <v>0.240615624114298</v>
       </c>
       <c r="D14">
-        <v>0.1121313371873498</v>
+        <v>0.3216443952019858</v>
       </c>
       <c r="E14">
-        <v>0.07399924956106751</v>
+        <v>0.03299162547087064</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.659081857793296</v>
+        <v>1.419624639216096</v>
       </c>
       <c r="H14">
-        <v>1.440148295710173</v>
+        <v>0.8552644942110419</v>
       </c>
       <c r="I14">
-        <v>1.417392902624513</v>
+        <v>0.9009245044218801</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.7673084017584131</v>
+        <v>1.91758962376727</v>
       </c>
       <c r="L14">
-        <v>0.2351933419571566</v>
+        <v>0.2444581214252395</v>
       </c>
       <c r="M14">
-        <v>0.2433822120127829</v>
+        <v>0.3918864691825732</v>
       </c>
       <c r="N14">
-        <v>2.564263315620664</v>
+        <v>1.183710287178513</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9490860695257766</v>
+        <v>1.869378900052482</v>
       </c>
       <c r="C15">
-        <v>0.0818868286095551</v>
+        <v>0.2379762031226136</v>
       </c>
       <c r="D15">
-        <v>0.1111441804827251</v>
+        <v>0.3179002279682095</v>
       </c>
       <c r="E15">
-        <v>0.07400928507126991</v>
+        <v>0.03291258544703446</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.657594186806108</v>
+        <v>1.40994744127201</v>
       </c>
       <c r="H15">
-        <v>1.43998544737164</v>
+        <v>0.8516209330244067</v>
       </c>
       <c r="I15">
-        <v>1.417170075412443</v>
+        <v>0.8970648419529113</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.7616461544936044</v>
+        <v>1.895550622346974</v>
       </c>
       <c r="L15">
-        <v>0.2347360133509824</v>
+        <v>0.2421882188393027</v>
       </c>
       <c r="M15">
-        <v>0.2423757521894885</v>
+        <v>0.387620021233424</v>
       </c>
       <c r="N15">
-        <v>2.566130018078297</v>
+        <v>1.18782146222815</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9189954141875205</v>
+        <v>1.748064978666292</v>
       </c>
       <c r="C16">
-        <v>0.07754888823667727</v>
+        <v>0.222930072445223</v>
       </c>
       <c r="D16">
-        <v>0.1054989508860302</v>
+        <v>0.2965750791553461</v>
       </c>
       <c r="E16">
-        <v>0.07407259215741568</v>
+        <v>0.03247044966560431</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.649314077270049</v>
+        <v>1.35546373787929</v>
       </c>
       <c r="H16">
-        <v>1.439220159828636</v>
+        <v>0.8312496692994387</v>
       </c>
       <c r="I16">
-        <v>1.416068662073521</v>
+        <v>0.8755169156468625</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7292836774911962</v>
+        <v>1.769905392669784</v>
       </c>
       <c r="L16">
-        <v>0.232147283461714</v>
+        <v>0.229291007004008</v>
       </c>
       <c r="M16">
-        <v>0.2366413158599556</v>
+        <v>0.3633181120677733</v>
       </c>
       <c r="N16">
-        <v>2.577044988571494</v>
+        <v>1.212005378691885</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9006439776253501</v>
+        <v>1.674177808529947</v>
       </c>
       <c r="C17">
-        <v>0.07488195866240233</v>
+        <v>0.2137650318502722</v>
       </c>
       <c r="D17">
-        <v>0.1020462609564277</v>
+        <v>0.2836027164310195</v>
       </c>
       <c r="E17">
-        <v>0.07411661101175326</v>
+        <v>0.03220862679857994</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.644453108582724</v>
+        <v>1.322869811371021</v>
       </c>
       <c r="H17">
-        <v>1.438900559072977</v>
+        <v>0.819189143655592</v>
       </c>
       <c r="I17">
-        <v>1.415549587893388</v>
+        <v>0.8627873513407422</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7095068440102636</v>
+        <v>1.693370761267147</v>
       </c>
       <c r="L17">
-        <v>0.2305877988929694</v>
+        <v>0.2214732041764336</v>
       </c>
       <c r="M17">
-        <v>0.2331530840035683</v>
+        <v>0.3485340257486982</v>
       </c>
       <c r="N17">
-        <v>2.583935098581406</v>
+        <v>1.227383291226168</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8901285861005306</v>
+        <v>1.631863612731024</v>
       </c>
       <c r="C18">
-        <v>0.07334588333863223</v>
+        <v>0.2085154210516862</v>
       </c>
       <c r="D18">
-        <v>0.1000642053097351</v>
+        <v>0.2761790210888648</v>
       </c>
       <c r="E18">
-        <v>0.07414383730797702</v>
+        <v>0.03206140261026924</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.641737497139019</v>
+        <v>1.304413245560085</v>
       </c>
       <c r="H18">
-        <v>1.438771825395747</v>
+        <v>0.8124061021966327</v>
       </c>
       <c r="I18">
-        <v>1.415308578211011</v>
+        <v>0.8556380264852237</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.6981599006562078</v>
+        <v>1.649536178725668</v>
       </c>
       <c r="L18">
-        <v>0.2297013539248098</v>
+        <v>0.217009488635199</v>
       </c>
       <c r="M18">
-        <v>0.231157666247924</v>
+        <v>0.340073556701185</v>
       </c>
       <c r="N18">
-        <v>2.587969415313651</v>
+        <v>1.236421511113569</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8865751127104033</v>
+        <v>1.617567130108483</v>
       </c>
       <c r="C19">
-        <v>0.07282542751464405</v>
+        <v>0.2067415571773239</v>
       </c>
       <c r="D19">
-        <v>0.09939377399345517</v>
+        <v>0.2736717028838456</v>
       </c>
       <c r="E19">
-        <v>0.07415338366038426</v>
+        <v>0.03201212543891074</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.640831822851709</v>
+        <v>1.298212752265528</v>
       </c>
       <c r="H19">
-        <v>1.438737701733032</v>
+        <v>0.8101352998741618</v>
       </c>
       <c r="I19">
-        <v>1.41523685999757</v>
+        <v>0.853246308632464</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.6943228637849757</v>
+        <v>1.63472521675979</v>
       </c>
       <c r="L19">
-        <v>0.2294030284973871</v>
+        <v>0.2155036372107588</v>
       </c>
       <c r="M19">
-        <v>0.2304839297912125</v>
+        <v>0.3372161102790301</v>
       </c>
       <c r="N19">
-        <v>2.589347609621292</v>
+        <v>1.239514347856165</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9025933953917615</v>
+        <v>1.682023923145351</v>
       </c>
       <c r="C20">
-        <v>0.07516607771880501</v>
+        <v>0.2147383553694624</v>
       </c>
       <c r="D20">
-        <v>0.1024134080255692</v>
+        <v>0.2849796881977511</v>
       </c>
       <c r="E20">
-        <v>0.07411172775580788</v>
+        <v>0.03223614758482363</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.644962256254985</v>
+        <v>1.326309096390816</v>
       </c>
       <c r="H20">
-        <v>1.438928879559683</v>
+        <v>0.8204569387559673</v>
       </c>
       <c r="I20">
-        <v>1.415598888113749</v>
+        <v>0.8641244296217536</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7116092076475411</v>
+        <v>1.701498432088584</v>
       </c>
       <c r="L20">
-        <v>0.2307527192265582</v>
+        <v>0.2223019813634011</v>
       </c>
       <c r="M20">
-        <v>0.2335232824441391</v>
+        <v>0.3501033115493328</v>
       </c>
       <c r="N20">
-        <v>2.583194253759082</v>
+        <v>1.22572615589133</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9568882534735224</v>
+        <v>1.900876003732918</v>
       </c>
       <c r="C21">
-        <v>0.08300503785443425</v>
+        <v>0.2418827812744837</v>
       </c>
       <c r="D21">
-        <v>0.1126049141253134</v>
+        <v>0.323442248061852</v>
       </c>
       <c r="E21">
-        <v>0.0739945396951498</v>
+        <v>0.03302972191047537</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.659799574412745</v>
+        <v>1.424282864390904</v>
       </c>
       <c r="H21">
-        <v>1.440229356048263</v>
+        <v>0.8570209245509091</v>
       </c>
       <c r="I21">
-        <v>1.417502859304896</v>
+        <v>0.9027856858998362</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.7700251149497888</v>
+        <v>1.928169975765087</v>
       </c>
       <c r="L21">
-        <v>0.2354132096920551</v>
+        <v>0.2455486249645418</v>
       </c>
       <c r="M21">
-        <v>0.2438654229873265</v>
+        <v>0.3939350575025387</v>
       </c>
       <c r="N21">
-        <v>2.563372032425256</v>
+        <v>1.181750134801902</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.992725905683983</v>
+        <v>2.045826383980909</v>
       </c>
       <c r="C22">
-        <v>0.08810966742423432</v>
+        <v>0.2598643895168777</v>
       </c>
       <c r="D22">
-        <v>0.1193000501718728</v>
+        <v>0.3489749670048639</v>
       </c>
       <c r="E22">
-        <v>0.07393486636346935</v>
+        <v>0.03358033619401546</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.670212638771432</v>
+        <v>1.491218688477318</v>
       </c>
       <c r="H22">
-        <v>1.441569622461401</v>
+        <v>0.8824320766448182</v>
       </c>
       <c r="I22">
-        <v>1.419259774055845</v>
+        <v>0.9297516613613652</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.8084529459416103</v>
+        <v>2.078278000405504</v>
       </c>
       <c r="L22">
-        <v>0.238552606379983</v>
+        <v>0.2610726530450904</v>
       </c>
       <c r="M22">
-        <v>0.2507214070135575</v>
+        <v>0.4230243057462673</v>
       </c>
       <c r="N22">
-        <v>2.551052784579824</v>
+        <v>1.154859096890931</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9735664994717581</v>
+        <v>1.96827379853346</v>
       </c>
       <c r="C23">
-        <v>0.0853869133088665</v>
+        <v>0.2502428287716612</v>
       </c>
       <c r="D23">
-        <v>0.115723573015984</v>
+        <v>0.3353084674008215</v>
       </c>
       <c r="E23">
-        <v>0.07396517086595544</v>
+        <v>0.03328343834105674</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.664589423167143</v>
+        <v>1.455211890650105</v>
       </c>
       <c r="H23">
-        <v>1.440809444076734</v>
+        <v>0.8687237242904189</v>
       </c>
       <c r="I23">
-        <v>1.418275171169974</v>
+        <v>0.9151956520359761</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.7879205022701967</v>
+        <v>1.997967021236178</v>
       </c>
       <c r="L23">
-        <v>0.2368685091357889</v>
+        <v>0.2527549555898077</v>
       </c>
       <c r="M23">
-        <v>0.2470534041898986</v>
+        <v>0.4074552542993501</v>
       </c>
       <c r="N23">
-        <v>2.557569594435392</v>
+        <v>1.169035507350685</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9017119542817227</v>
+        <v>1.678476185305328</v>
       </c>
       <c r="C24">
-        <v>0.0750376362889682</v>
+        <v>0.2142982555866695</v>
       </c>
       <c r="D24">
-        <v>0.1022474116770411</v>
+        <v>0.2843570531037471</v>
       </c>
       <c r="E24">
-        <v>0.07411392949700968</v>
+        <v>0.03222369517587609</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.644731824442232</v>
+        <v>1.324753320306172</v>
       </c>
       <c r="H24">
-        <v>1.438915904505961</v>
+        <v>0.819883300698848</v>
       </c>
       <c r="I24">
-        <v>1.415576420640427</v>
+        <v>0.863519411670687</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7106586573268601</v>
+        <v>1.697823397752899</v>
       </c>
       <c r="L24">
-        <v>0.2306781272079661</v>
+        <v>0.2219271955382993</v>
       </c>
       <c r="M24">
-        <v>0.2333558845344612</v>
+        <v>0.3493937163019112</v>
       </c>
       <c r="N24">
-        <v>2.583528961990872</v>
+        <v>1.226474733762814</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8257304863251989</v>
+        <v>1.372770546578778</v>
       </c>
       <c r="C25">
-        <v>0.06379265141977442</v>
+        <v>0.1763405752978855</v>
       </c>
       <c r="D25">
-        <v>0.08785783244113077</v>
+        <v>0.2308084686669929</v>
       </c>
       <c r="E25">
-        <v>0.07434737249262291</v>
+        <v>0.03120843730585499</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.6263810592027</v>
+        <v>1.194989778398565</v>
       </c>
       <c r="H25">
-        <v>1.438979825926666</v>
+        <v>0.7730134416581365</v>
       </c>
       <c r="I25">
-        <v>1.414865461609772</v>
+        <v>0.8142896452009154</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6283965485025362</v>
+        <v>1.381036140174587</v>
       </c>
       <c r="L25">
-        <v>0.2244034813255666</v>
+        <v>0.1899127191488859</v>
       </c>
       <c r="M25">
-        <v>0.2189986296512529</v>
+        <v>0.2883774810957362</v>
       </c>
       <c r="N25">
-        <v>2.614256232130202</v>
+        <v>1.295758929914157</v>
       </c>
       <c r="O25">
         <v>0</v>
